--- a/data/trans_dic/P27-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P27-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún tipo de medicamentos en las últimas dos semanas</t>
+          <t>Población que ha consumido algún tipo de medicamentos en las últimas dos semanas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>32,97%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>35,57%</t>
+          <t>36,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37,85%</t>
+          <t>40,04%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50,71%</t>
+          <t>34,24%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>45,16%</t>
+          <t>50,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>56,27%</t>
+          <t>32,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>52,65%</t>
+          <t>46,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>54,73%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>52,52%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>51,93%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>64,17%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>39,29%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>45,83%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>45,26%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>46,42%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>39,35%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>45,62%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>46,29%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>43,14%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>57,04%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>38,83%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,6; 41,71</t>
+          <t>24,46; 40,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,58; 43,96</t>
+          <t>28,74; 45,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,19; 48,02</t>
+          <t>30,64; 49,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,81; 60,29</t>
+          <t>25,52; 43,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,3; 53,26</t>
+          <t>40,82; 60,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>48,09; 63,35</t>
+          <t>23,55; 42,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,61; 60,06</t>
+          <t>38,32; 53,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>54,34; 72,57</t>
+          <t>47,58; 62,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,19; 45,5</t>
+          <t>44,42; 59,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>40,11; 51,37</t>
+          <t>43,69; 60,69</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>39,12; 50,78</t>
+          <t>54,54; 72,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>49,51; 63,73</t>
+          <t>37,5; 55,65</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>33,28; 45,03</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>39,76; 51,46</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>40,05; 52,57</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>37,13; 49,7</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>50,37; 63,97</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>32,36; 45,85</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>39,12%</t>
+          <t>38,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>38,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>40,41%</t>
+          <t>40,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>47,38%</t>
+          <t>49,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,99%</t>
+          <t>47,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>49,57%</t>
+          <t>45,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>58,98%</t>
+          <t>44,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>54,32%</t>
+          <t>49,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>41,44%</t>
+          <t>58,99%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>43,89%</t>
+          <t>48,87%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>49,09%</t>
+          <t>54,09%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>50,75%</t>
+          <t>48,49%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>41,54%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>43,73%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>49,29%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>49,41%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>50,63%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>46,9%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,16; 47,51</t>
+          <t>30,19; 48,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,17; 46,23</t>
+          <t>31,21; 46,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,7; 49,83</t>
+          <t>32,4; 50,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,61; 57,51</t>
+          <t>39,07; 63,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,21; 51,82</t>
+          <t>36,61; 55,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,11; 55,99</t>
+          <t>35,59; 56,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,57; 65,54</t>
+          <t>36,86; 52,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>45,98; 62,43</t>
+          <t>42,22; 56,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,23; 47,54</t>
+          <t>52,86; 65,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>38,46; 48,56</t>
+          <t>41,02; 56,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>43,39; 54,19</t>
+          <t>45,31; 61,2</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>44,47; 57,51</t>
+          <t>41,08; 56,52</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>34,89; 47,32</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>37,98; 48,68</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>43,02; 54,56</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>42,88; 58,24</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>44,14; 56,59</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>40,05; 53,12</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>51,51%</t>
+          <t>50,62%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>43,71%</t>
+          <t>43,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>51,11%</t>
+          <t>50,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>56,47%</t>
+          <t>41,73%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>53,39%</t>
+          <t>56,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>55,61%</t>
+          <t>44,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>52,63%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>55,69%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>60,18%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>54,12%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>63,12%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>52,45%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>49,81%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>55,76%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>59,61%</t>
+          <t>55,88%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>51,64%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>49,92%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>55,65%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>48,1%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>59,51%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>50,01%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>42,97; 61,01</t>
+          <t>42,89; 57,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,53; 50,85</t>
+          <t>37,6; 50,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>44,59; 59,12</t>
+          <t>44,35; 58,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>49,7; 63,18</t>
+          <t>34,03; 48,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>47,7; 59,43</t>
+          <t>48,66; 62,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>50,27; 60,84</t>
+          <t>37,9; 52,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>54,93; 65,21</t>
+          <t>46,76; 58,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>56,63; 69,38</t>
+          <t>50,55; 60,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>47,23; 57,99</t>
+          <t>55,1; 65,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>45,51; 53,83</t>
+          <t>48,34; 59,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,17; 60,27</t>
+          <t>56,52; 68,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>54,69; 63,95</t>
+          <t>49,07; 62,66</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>47,1; 56,78</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>45,6; 54,12</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>51,72; 60,07</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>42,44; 52,29</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>54,58; 63,7</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>45,21; 55,22</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>42,89%</t>
+          <t>43,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45,1%</t>
+          <t>44,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>53,22%</t>
+          <t>53,46%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>54,67%</t>
+          <t>49,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>62,13%</t>
+          <t>54,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>60,03%</t>
+          <t>46,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>61,62%</t>
+          <t>62,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>67,24%</t>
+          <t>60,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>52,89%</t>
+          <t>61,92%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>52,73%</t>
+          <t>56,93%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>57,48%</t>
+          <t>67,09%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>60,63%</t>
+          <t>57,81%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>53,4%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>52,98%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>57,76%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>52,98%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>60,54%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>51,98%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,17; 49,45</t>
+          <t>36,54; 49,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,5; 51,74</t>
+          <t>39,18; 50,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,91; 59,04</t>
+          <t>47,51; 59,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>46,54; 62,05</t>
+          <t>41,93; 55,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,43; 67,77</t>
+          <t>46,22; 61,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,51; 64,59</t>
+          <t>40,01; 54,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>56,64; 66,93</t>
+          <t>56,67; 68,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>61,19; 73,15</t>
+          <t>55,85; 66,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>48,23; 56,86</t>
+          <t>57,14; 66,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>48,82; 56,96</t>
+          <t>51,7; 62,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>53,63; 61,23</t>
+          <t>60,11; 72,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>55,64; 65,61</t>
+          <t>51,05; 63,72</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>49,35; 57,85</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>49,22; 56,76</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>53,72; 61,82</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>48,68; 57,15</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>55,79; 65,46</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>46,88; 56,49</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>55,83%</t>
+          <t>56,1%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>58,13%</t>
+          <t>57,99%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>63,48%</t>
+          <t>63,77%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>53,19%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>68,06%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>61,13%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>64,99%</t>
+          <t>60,05%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>64,58%</t>
+          <t>61,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>64,71%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>65,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>49,1%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>72,12%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>58,52%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>61,56%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>64,04%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>70,18%</t>
+          <t>52,91%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>58,68%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>61,35%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>64,4%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>51,1%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>70,19%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>56,42%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>49,03; 62,73</t>
+          <t>49,59; 63,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51,63; 64,67</t>
+          <t>51,77; 63,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57,03; 70,05</t>
+          <t>57,62; 69,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>60,7; 74,57</t>
+          <t>46,03; 60,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,25; 67,81</t>
+          <t>61,04; 74,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>58,11; 70,55</t>
+          <t>53,04; 67,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>58,07; 70,37</t>
+          <t>54,92; 67,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>66,02; 78,08</t>
+          <t>58,43; 70,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53,83; 63,31</t>
+          <t>58,87; 70,54</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>56,89; 65,95</t>
+          <t>41,26; 57,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>59,29; 68,14</t>
+          <t>65,06; 77,74</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>65,62; 74,93</t>
+          <t>45,91; 59,68</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>53,68; 63,18</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>56,11; 65,04</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>60,72; 68,72</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>45,46; 56,1</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>65,3; 74,82</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>51,43; 61,34</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>59,71%</t>
+          <t>58,87%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>58,91%</t>
+          <t>58,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>65,84%</t>
+          <t>65,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>51,38%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>70,75%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>70,67%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>59,68%</t>
+          <t>63,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>74,14%</t>
+          <t>69,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>67,4%</t>
+          <t>61,25%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>65,93%</t>
+          <t>73,86%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>59,35%</t>
+          <t>49,52%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>70,54%</t>
+          <t>67,16%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>68,82%</t>
+          <t>64,17%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>65,19%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>60,2%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>70,38%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>50,33%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>68,69%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>64,08%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>51,57; 67,99</t>
+          <t>50,9; 67,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>50,96; 66,79</t>
+          <t>50,84; 66,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>58,65; 72,53</t>
+          <t>58,98; 73,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>63,53; 77,87</t>
+          <t>42,96; 60,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>63,91; 76,4</t>
+          <t>62,32; 77,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>52,85; 66,07</t>
+          <t>56,15; 72,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>68,48; 80,39</t>
+          <t>63,56; 76,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>57,22; 75,05</t>
+          <t>54,31; 67,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>60,67; 71,18</t>
+          <t>68,12; 79,07</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>53,87; 64,4</t>
+          <t>39,87; 57,95</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>65,84; 75,47</t>
+          <t>57,31; 75,99</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>61,81; 74,62</t>
+          <t>56,21; 71,33</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>59,85; 70,06</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>54,85; 64,85</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>65,68; 74,89</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>44,24; 56,22</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>62,17; 74,54</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>58,4; 69,39</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>47,24%</t>
+          <t>46,86%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>46,36%</t>
+          <t>46,41%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>51,74%</t>
+          <t>52,19%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>57,74%</t>
+          <t>46,68%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>57,19%</t>
+          <t>57,7%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>57,75%</t>
+          <t>48,55%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>62,52%</t>
+          <t>57,25%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>64,94%</t>
+          <t>57,97%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>62,55%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>51,97%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>64,83%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>55,19%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>52,17%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
           <t>52,33%</t>
         </is>
       </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>52,19%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>57,25%</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>61,35%</t>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>57,48%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>49,38%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>61,27%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>51,88%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43,75; 50,62</t>
+          <t>43,75; 50,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>43,28; 49,56</t>
+          <t>43,66; 49,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>48,66; 54,97</t>
+          <t>48,93; 55,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>54,51; 61,1</t>
+          <t>43,49; 50,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>54,08; 59,96</t>
+          <t>54,01; 60,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>55,19; 60,36</t>
+          <t>44,95; 52,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>59,94; 65,19</t>
+          <t>54,54; 59,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>61,75; 67,95</t>
+          <t>55,36; 60,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>50,05; 54,78</t>
+          <t>59,97; 64,76</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>50,17; 54,19</t>
+          <t>48,79; 55,07</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>55,25; 59,3</t>
+          <t>61,57; 68,02</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>58,94; 63,75</t>
+          <t>52,03; 58,2</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>49,99; 54,55</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>50,39; 54,35</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>55,22; 59,45</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>46,89; 52,13</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>58,88; 63,73</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>49,53; 54,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido algún tipo de medicamentos en las últimas dos semanas (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>164236</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>192203</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>204264</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>161325</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>21332</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14184</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>216256</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>281826</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>268339</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>247813</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>23998</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>17895</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>380492</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>474029</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>472603</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>409137</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>45331</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>32078</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>121842; 202527</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>150672; 238463</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>156294; 249979</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>120231; 207065</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17174; 25261</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10379; 18666</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>179624; 252205</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>244972; 319241</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>226949; 306192</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>208531; 289651</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>20399; 27058</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14455; 21454</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>321808; 435423</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>413178; 534685</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>408916; 536800</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>352188; 471373</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>40034; 50837</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>26734; 37875</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>220389</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>218081</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>242737</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>289218</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>23628</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>22259</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>227981</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>251377</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>305211</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>245706</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25399</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>22167</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>448369</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>469459</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>547948</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>534925</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>49026</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>44426</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>171873; 275536</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>176514; 262081</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>192578; 301481</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>226571; 370931</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18259; 27924</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17440; 27458</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>188060; 269234</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>214477; 284672</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>273485; 338844</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>206205; 284046</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>21280; 28741</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>18777; 25836</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>376599; 510809</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>407759; 522551</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>478223; 606579</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>464281; 630497</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>42748; 54801</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>37931; 50311</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>364.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>347409</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>298337</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>346119</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>283312</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>33732</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>27173</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>370928</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>400068</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>428509</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>388307</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>34033</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>30651</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>718338</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>698405</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>774629</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>671619</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>67765</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>57824</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>294418; 397450</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>255960; 342761</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>301597; 395446</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>231011; 331624</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>29169; 37602</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>23030; 31767</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>329569; 411933</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>363201; 437521</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>392310; 464107</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>346793; 429389</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>30474; 37020</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>26918; 34370</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>655229; 789940</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>637999; 757234</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>719995; 836270</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>592625; 730164</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>62146; 72530</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>52273; 63843</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>355.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>402.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>280835</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>288028</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>340372</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>322502</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>31861</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>26483</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>427470</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>407621</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>376563</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>35017</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>30937</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>708305</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>698030</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>747993</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>699064</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>66878</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>57419</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>235649; 322176</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>252353; 326800</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>302467; 377892</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>275964; 362416</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>26932; 36041</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>22787; 30816</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>386286; 464017</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>376049; 445709</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>376136; 438625</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>341958; 413650</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>31373; 37986</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>27318; 34098</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>654542; 767346</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>648457; 747891</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>695661; 800561</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>642392; 754099</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>61627; 72307</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>51786; 62408</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>337.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>277867</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>291134</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>314709</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>262214</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>30279</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>27091</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>311470</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>325553</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>334853</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>252369</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>35176</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>24641</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>589337</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>616687</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>649562</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>514583</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>65456</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>51732</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>245615; 313278</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>259877; 320822</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>284344; 344396</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>226952; 296691</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>27153; 33355</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>23931; 30394</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>279554; 342715</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>294004; 356247</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>303275; 363388</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>212051; 293447</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>31733; 37914</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>21379; 27792</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>539120; 634584</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>564004; 653768</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>612444; 693108</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>457797; 564904</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>60895; 69775</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>47157; 56245</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>320970</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>311340</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>350732</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>288846</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>33136</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>29318</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>502337</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>425567</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>509539</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>362131</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>42480</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>40860</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>823307</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>736908</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>860271</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>650977</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>75615</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>70177</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>277516; 366499</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>269032; 352134</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>314029; 389396</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>241523; 338115</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>29190; 36273</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>25741; 33117</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>456152; 546756</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>377387; 468840</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>469982; 545511</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>291547; 423762</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>36247; 48060</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>35790; 45421</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>755917; 884836</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>671346; 793806</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>802736; 915333</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>572219; 727180</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>68438; 82061</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>63958; 75995</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>553.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>651.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>711.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>487.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>538.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>464.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>772.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>968.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1036.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>671.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>716.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>611.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1325.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>1619.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>1747.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>1158.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>1254.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>1075.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1611705</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1599123</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1798932</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1607417</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>173968</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>146506</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2056443</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2094393</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2254073</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1872889</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>196102</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>167150</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>3668147</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>3693516</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>4053006</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>3480305</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>370071</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>313656</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1504667; 1729553</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1504579; 1710332</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1686633; 1905085</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1497455; 1754481</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>162851; 183885</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>135641; 157832</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1959036; 2148391</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1999913; 2180468</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2161087; 2333540</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1758342; 1984856</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>186234; 205750</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>157575; 176280</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>3514836; 3835844</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>3556633; 3836531</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>3893732; 4191771</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>3304498; 3673634</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>355654; 384924</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>299485; 328588</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
